--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/common_good_contra.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/common_good_contra.xlsx
@@ -33,7 +33,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38,15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
   </si>
   <si>
     <t>arg33053</t>
@@ -42,7 +42,7 @@
     <t>arg33125</t>
   </si>
   <si>
-    <t>250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
+    <t>25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3,42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
   </si>
   <si>
     <t>arg33070</t>
@@ -54,13 +54,13 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
+    <t>23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77,18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
   </si>
   <si>
     <t>arg33115</t>
   </si>
   <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
   </si>
   <si>
     <t>arg33102</t>
@@ -69,7 +69,7 @@
     <t>arg33145</t>
   </si>
   <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
   </si>
   <si>
     <t>don'</t>
@@ -84,19 +84,19 @@
     <t>arg33088</t>
   </si>
   <si>
-    <t>430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06,16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6</t>
   </si>
   <si>
     <t>arg33173</t>
   </si>
   <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
   </si>
   <si>
     <t>arg33073</t>
   </si>
   <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
   </si>
   <si>
     <t>arg33157</t>
@@ -105,16 +105,16 @@
     <t>arg33123</t>
   </si>
   <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0</t>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11</t>
   </si>
   <si>
     <t>arg33165</t>
   </si>
   <si>
-    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
+    <t>23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06</t>
   </si>
   <si>
     <t>othe</t>
@@ -129,7 +129,7 @@
     <t>arg33054</t>
   </si>
   <si>
-    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
   </si>
   <si>
     <t>arg33105</t>
@@ -138,19 +138,19 @@
     <t>arg33128</t>
   </si>
   <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13</t>
   </si>
   <si>
     <t>arg33142</t>
   </si>
   <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86</t>
   </si>
   <si>
     <t>arg33058</t>
   </si>
   <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
   </si>
   <si>
     <t>arg33158</t>
@@ -159,7 +159,7 @@
     <t>arg33091</t>
   </si>
   <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
   </si>
   <si>
     <t>ou s</t>
@@ -168,37 +168,37 @@
     <t>trive to be good at something, it will help you grow as a person. From my personal experience, pursuing a personal goal has helped other people in this world.</t>
   </si>
   <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86</t>
+  </si>
+  <si>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
   </si>
   <si>
     <t>arg33127</t>
   </si>
   <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
   </si>
   <si>
     <t>arg33159</t>
   </si>
   <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0,446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67,42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
+  </si>
+  <si>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
   </si>
   <si>
     <t>arg33069</t>
   </si>
   <si>
-    <t>436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
+    <t>16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
   </si>
   <si>
     <t>et m</t>
@@ -207,118 +207,118 @@
     <t>ost people to endeavor advancing the common good; which is why communism failed.</t>
   </si>
   <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2,349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
+  </si>
+  <si>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16,17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86</t>
+  </si>
+  <si>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
   </si>
   <si>
     <t>arg33146</t>
   </si>
   <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3</t>
+  </si>
+  <si>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38,25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06</t>
   </si>
   <si>
     <t>arg33118</t>
   </si>
   <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0</t>
   </si>
   <si>
     <t>arg33150</t>
   </si>
   <si>
-    <t>260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2,405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
-  </si>
-  <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0,158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38,19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
+  </si>
+  <si>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0</t>
+  </si>
+  <si>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
+  </si>
+  <si>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67,16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11</t>
+  </si>
+  <si>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56,18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
   </si>
   <si>
     <t>arg33057</t>
   </si>
   <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2,334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0</t>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16,15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17</t>
   </si>
   <si>
     <t>arg33144</t>
   </si>
   <si>
-    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0,336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
+    <t>26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13,30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1</t>
   </si>
   <si>
     <t>arg33143</t>
   </si>
   <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2,405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2,158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16,19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
+  </si>
+  <si>
+    <t>42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56,26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13</t>
+  </si>
+  <si>
+    <t>16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43,16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6</t>
+  </si>
+  <si>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
   </si>
   <si>
     <t>arg33149</t>
   </si>
   <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38,42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
+  </si>
+  <si>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87</t>
   </si>
   <si>
     <t>g ca</t>
@@ -327,28 +327,28 @@
     <t>me out.</t>
   </si>
   <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1</t>
+  </si>
+  <si>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67</t>
   </si>
   <si>
     <t>arg33111</t>
   </si>
   <si>
-    <t>490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
+    <t>22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
   </si>
   <si>
     <t>be</t>
@@ -357,7 +357,7 @@
     <t>who i am.</t>
   </si>
   <si>
-    <t>446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
   </si>
   <si>
     <t>you</t>
@@ -366,31 +366,31 @@
     <t>'re going to help the family member out instead of the random person you don't know.</t>
   </si>
   <si>
-    <t>430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
-  </si>
-  <si>
-    <t>260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
-  </si>
-  <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06,25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3</t>
+  </si>
+  <si>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13</t>
+  </si>
+  <si>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
+  </si>
+  <si>
+    <t>23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
+  </si>
+  <si>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
   </si>
   <si>
     <t>wha</t>
@@ -399,7 +399,7 @@
     <t>t because they're blood. If someone who you don't know is in need at the same time as someone who is related to you, you're going to help the family member out instead of the random person you don't know.</t>
   </si>
   <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06</t>
   </si>
   <si>
     <t>als,</t>
@@ -408,58 +408,58 @@
     <t>whenever he is already succesful and with money he decides to help others.</t>
   </si>
   <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2</t>
-  </si>
-  <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
+  </si>
+  <si>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6</t>
+  </si>
+  <si>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
+  </si>
+  <si>
+    <t>23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
+  </si>
+  <si>
+    <t>23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
+  </si>
+  <si>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42</t>
+  </si>
+  <si>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
+  </si>
+  <si>
+    <t>23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77,19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
+  </si>
+  <si>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1</t>
+  </si>
+  <si>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13</t>
   </si>
   <si>
     <t>goo</t>
@@ -468,13 +468,13 @@
     <t>d so that you will get more money.</t>
   </si>
   <si>
-    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13</t>
+  </si>
+  <si>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
   </si>
   <si>
     <t>xpec</t>
@@ -483,10 +483,10 @@
     <t>t it to be that way. These two are no different nor are they the same but they are significant.</t>
   </si>
   <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
   </si>
   <si>
     <t>in a</t>
@@ -495,10 +495,10 @@
     <t>world where you see very little good.</t>
   </si>
   <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0,334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67,15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17</t>
+  </si>
+  <si>
+    <t>25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
   </si>
   <si>
     <t>hel</t>
@@ -507,10 +507,10 @@
     <t>p the family member out instead of the random person you don't know.</t>
   </si>
   <si>
-    <t>430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
+    <t>25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
   </si>
   <si>
     <t>uit</t>
@@ -519,16 +519,16 @@
     <t>can be the advancement of the common good.</t>
   </si>
   <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67</t>
+  </si>
+  <si>
+    <t>25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
   </si>
   <si>
     <t>nt.</t>
   </si>
   <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
   </si>
   <si>
     <t>cing</t>
@@ -537,67 +537,67 @@
     <t>the common good; which is why communism failed.</t>
   </si>
   <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2,336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
-  </si>
-  <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
-  </si>
-  <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0,309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
-  </si>
-  <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38,15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17</t>
+  </si>
+  <si>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
+  </si>
+  <si>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16,30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1</t>
+  </si>
+  <si>
+    <t>25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
+  </si>
+  <si>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
+  </si>
+  <si>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38,26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13</t>
+  </si>
+  <si>
+    <t>25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
+  </si>
+  <si>
+    <t>42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05,18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
+  </si>
+  <si>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
   </si>
   <si>
     <t>ttle</t>
@@ -606,10 +606,10 @@
     <t>good.</t>
   </si>
   <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
+  </si>
+  <si>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
   </si>
   <si>
     <t>ursu</t>
@@ -618,64 +618,64 @@
     <t>it might be more useful we only live this life for so long and we want to be the best we can be. Maybe your personal pursuit is to advance the common good.</t>
   </si>
   <si>
-    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0,350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2,299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0,290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0</t>
+    <t>23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77,16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6</t>
+  </si>
+  <si>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
+  </si>
+  <si>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56</t>
+  </si>
+  <si>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
+  </si>
+  <si>
+    <t>26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13,15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
+  </si>
+  <si>
+    <t>16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43,14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0</t>
+  </si>
+  <si>
+    <t>30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1,20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67</t>
+  </si>
+  <si>
+    <t>15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17,13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67</t>
+  </si>
+  <si>
+    <t>23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
+  </si>
+  <si>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11</t>
   </si>
   <si>
     <t>rts</t>
@@ -684,22 +684,22 @@
     <t>the fire.</t>
   </si>
   <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0,549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
+  </si>
+  <si>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67,20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87</t>
   </si>
   <si>
     <t>id b</t>
@@ -708,40 +708,40 @@
     <t>elieve in the advancement of the common good all of the economical cars and factories wouldn't just now be made. These inventions would have come out as soon as the theory of global warming came out.</t>
   </si>
   <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
-  </si>
-  <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3,18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0</t>
+  </si>
+  <si>
+    <t>26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
+  </si>
+  <si>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38,23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77</t>
+  </si>
+  <si>
+    <t>30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0</t>
+  </si>
+  <si>
+    <t>22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06,42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
   </si>
   <si>
     <t>dvan</t>
@@ -750,25 +750,25 @@
     <t>ce the common good.</t>
   </si>
   <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
-  </si>
-  <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0,361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
+  </si>
+  <si>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67,22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
   </si>
   <si>
     <t>perfect world and I don't expect it to be that way. These two are no different nor are they the same but they are significant.</t>
   </si>
   <si>
-    <t>250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3,26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13</t>
+  </si>
+  <si>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
   </si>
   <si>
     <t>the</t>
@@ -777,10 +777,10 @@
     <t>same time as someone who is related to you, you're going to help the family member out instead of the random person you don't know.</t>
   </si>
   <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2</t>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42</t>
   </si>
   <si>
     <t>happ</t>
@@ -789,46 +789,46 @@
     <t>iness.</t>
   </si>
   <si>
-    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
   </si>
   <si>
     <t>don't know.</t>
   </si>
   <si>
-    <t>349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0,372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0,430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
+    <t>17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06,15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13,18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11</t>
+  </si>
+  <si>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67</t>
+  </si>
+  <si>
+    <t>26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13,25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56</t>
+  </si>
+  <si>
+    <t>22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
   </si>
   <si>
     <t>hy c</t>
@@ -837,10 +837,10 @@
     <t>ommunism failed.</t>
   </si>
   <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
   </si>
   <si>
     <t>er i</t>
@@ -849,67 +849,67 @@
     <t>f you were alone.</t>
   </si>
   <si>
-    <t>336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
-  </si>
-  <si>
-    <t>334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
-  </si>
-  <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0,350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2,336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
-  </si>
-  <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
+  </si>
+  <si>
+    <t>15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
+  </si>
+  <si>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
+  </si>
+  <si>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
+  </si>
+  <si>
+    <t>15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
+  </si>
+  <si>
+    <t>15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17,23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77</t>
+  </si>
+  <si>
+    <t>16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43,30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
+  </si>
+  <si>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38,22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77</t>
+  </si>
+  <si>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
+  </si>
+  <si>
+    <t>12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
   </si>
   <si>
     <t>out</t>
@@ -918,7 +918,7 @@
     <t>instead of the random person you don't know.</t>
   </si>
   <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
   </si>
   <si>
     <t>elf</t>
@@ -927,40 +927,40 @@
     <t>as deep into a hole as you want to, but standing as one person rather than many, you could probably dig faster if you were alone.</t>
   </si>
   <si>
-    <t>446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
-  </si>
-  <si>
-    <t>260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
-  </si>
-  <si>
-    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0,290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
-  </si>
-  <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0,430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
+    <t>42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17</t>
+  </si>
+  <si>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
+  </si>
+  <si>
+    <t>19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
+  </si>
+  <si>
+    <t>23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
+  </si>
+  <si>
+    <t>26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13,13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67</t>
+  </si>
+  <si>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
+  </si>
+  <si>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86</t>
+  </si>
+  <si>
+    <t>20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67,25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06</t>
   </si>
   <si>
     <t>oney</t>
@@ -969,34 +969,34 @@
     <t>he decides to help others.</t>
   </si>
   <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2,290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
+  </si>
+  <si>
+    <t>19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
+  </si>
+  <si>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16,13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
   </si>
   <si>
     <t>it,</t>
@@ -1005,43 +1005,43 @@
     <t>then we would keep each other in check. It is easier to get most people to endeavor personal pursuit than it is to get most people to endeavor advancing the common good; which is why communism failed.</t>
   </si>
   <si>
-    <t>446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0,334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0,405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
+    <t>42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05,15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17</t>
+  </si>
+  <si>
+    <t>17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86,25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3</t>
+  </si>
+  <si>
+    <t>17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
+  </si>
+  <si>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13,19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
+  </si>
+  <si>
+    <t>30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0</t>
+  </si>
+  <si>
+    <t>16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
   </si>
   <si>
     <t>u we</t>
@@ -1050,16 +1050,16 @@
     <t>re alone.</t>
   </si>
   <si>
-    <t>250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
-  </si>
-  <si>
-    <t>490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
+    <t>25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
+  </si>
+  <si>
+    <t>22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06,30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1</t>
+  </si>
+  <si>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
   </si>
   <si>
     <t>ig y</t>
@@ -1068,52 +1068,52 @@
     <t>ourself as deep into a hole as you want to, but standing as one person rather than many, you could probably dig faster if you were alone.</t>
   </si>
   <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
-  </si>
-  <si>
-    <t>349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2,372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2,350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
+  </si>
+  <si>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11</t>
+  </si>
+  <si>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38,21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56</t>
+  </si>
+  <si>
+    <t>12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1</t>
+  </si>
+  <si>
+    <t>12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
+  </si>
+  <si>
+    <t>17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5,25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3</t>
+  </si>
+  <si>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56</t>
+  </si>
+  <si>
+    <t>23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38,18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11</t>
+  </si>
+  <si>
+    <t>16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38,15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
+  </si>
+  <si>
+    <t>25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06,17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86</t>
+  </si>
+  <si>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38,13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67</t>
+  </si>
+  <si>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
   </si>
   <si>
     <t>ll h</t>
@@ -1122,7 +1122,7 @@
     <t>elp you grow as a person. From my personal experience, pursuing a personal goal has helped other people in this world.</t>
   </si>
   <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
   </si>
   <si>
     <t>who</t>
@@ -1131,91 +1131,91 @@
     <t>you don't know is in need at the same time as someone who is related to you, you're going to help the family member out instead of the random person you don't know.</t>
   </si>
   <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
-  </si>
-  <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,289,0.67,10.36,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0,158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
-  </si>
-  <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0,549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0,361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2</t>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
+  </si>
+  <si>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
+  </si>
+  <si>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56</t>
+  </si>
+  <si>
+    <t>30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
+  </si>
+  <si>
+    <t>23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86</t>
+  </si>
+  <si>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38,42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,20.0,4.82,0.88,0.86,1.03,0.67,10.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.25,0.12,0.12,0.17,0.0,0.0,0.0,0.0,13.8</t>
+  </si>
+  <si>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86,16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6</t>
+  </si>
+  <si>
+    <t>25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
+  </si>
+  <si>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
+  </si>
+  <si>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86,20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13</t>
+  </si>
+  <si>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87,22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42</t>
   </si>
   <si>
     <t>s.</t>
   </si>
   <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0,446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87</t>
+  </si>
+  <si>
+    <t>18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53,42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
   </si>
   <si>
     <t>d if</t>
@@ -1224,13 +1224,13 @@
     <t>your ever in the position of power and have money you could truly advance the common good.</t>
   </si>
   <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
-  </si>
-  <si>
-    <t>436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
+  </si>
+  <si>
+    <t>16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
   </si>
   <si>
     <t>goin</t>
@@ -1239,49 +1239,49 @@
     <t>g to help the family member out instead of the random person you don't know.</t>
   </si>
   <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2</t>
-  </si>
-  <si>
-    <t>309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2,549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,430,0.67,16.33,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,336,1.0,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2</t>
-  </si>
-  <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13</t>
+  </si>
+  <si>
+    <t>17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
+  </si>
+  <si>
+    <t>18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56,24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43</t>
+  </si>
+  <si>
+    <t>18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16,20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87</t>
+  </si>
+  <si>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3,20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,25.0,5.73,1.1,0.86,1.28,0.67,16.33,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.27,0.05,0.05,0.13,0.03,0.13,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,30.5,5.51,0.89,0.57,1.57,1.0,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.25,0.03,0.03,0.18,0.02,0.0,0.0,0.0,20.1</t>
+  </si>
+  <si>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42</t>
+  </si>
+  <si>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
   </si>
   <si>
     <t>n go</t>
@@ -1290,7 +1290,7 @@
     <t>od.</t>
   </si>
   <si>
-    <t>446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
+    <t>42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
   </si>
   <si>
     <t>pers</t>
@@ -1299,16 +1299,16 @@
     <t>onal pursuit is to advance the common good.</t>
   </si>
   <si>
-    <t>521,0.25,14.14,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.17,0.2,389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
-  </si>
-  <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0</t>
+    <t>24.25,5.37,1.42,1.14,1.24,0.25,14.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.24,0.05,0.05,0.09,0.02,0.13,0.2,0.2,10.43,26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13</t>
+  </si>
+  <si>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
+  </si>
+  <si>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
+  </si>
+  <si>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67</t>
   </si>
   <si>
     <t>nd w</t>
@@ -1317,61 +1317,61 @@
     <t>e want to be the best we can be. Maybe your personal pursuit is to advance the common good.</t>
   </si>
   <si>
-    <t>401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,549,0.6,13.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>299,0.5,12.45,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
-  </si>
-  <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0,309,0.33,14.98,0.0,0.13,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.2</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.08,0.2,446,1.0,13.52,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,273,0.25,12.66,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,372,0.0,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.5,12.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.08,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0,250,0.0,11.52,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,198,0.33,12.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>349,0.0,11.37,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0,350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>290,0.25,12.19,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.35,0.0,0.0,260,1.0,15.09,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.08,0.2</t>
-  </si>
-  <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,490,1.0,14.53,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07,12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13</t>
+  </si>
+  <si>
+    <t>12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38,20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87</t>
+  </si>
+  <si>
+    <t>21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5,20.2,5.44,1.48,1.43,1.04,0.6,13.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.1,0.1,0.05,0.04,0.13,0.0,0.0,8.87</t>
+  </si>
+  <si>
+    <t>14.25,5.25,0.84,1.14,0.73,0.5,12.45,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.23,0.05,0.05,0.26,0.0,0.0,0.0,0.0,13.0,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
+  </si>
+  <si>
+    <t>12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13,18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
+  </si>
+  <si>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86,18.33,5.62,0.81,0.86,0.94,0.33,14.98,0.0,0.13,1.0,0,0,0.0,0.0,0.0,0.25,0.18,0.27,0.02,0.02,0.16,0.0,0.0,0.2,0.2,2.16</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
+  </si>
+  <si>
+    <t>22.67,5.31,1.0,0.86,1.16,0.33,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.19,0.07,0.07,0.13,0.0,0.0,0.2,0.2,14.42,42.5,5.25,1.25,0.57,2.18,1.0,13.52,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.24,0.05,0.05,0.08,0.0,0.0,0.0,0.0,9.05</t>
+  </si>
+  <si>
+    <t>22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06,12.75,5.35,0.75,1.14,0.65,0.25,12.66,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.25,0.12,0.12,0.14,0.0,0.0,0.0,0.0,19.38</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,18.0,5.17,1.06,1.14,0.92,0.0,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.0,0.28,0.08,0.08,0.18,0.01,0.13,0.0,0.0,2.56</t>
+  </si>
+  <si>
+    <t>15.5,5.39,0.91,1.14,0.8,0.5,12.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.18,0.06,0.06,0.15,0.0,0.0,0.0,0.0,14.17,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
+  </si>
+  <si>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67,25.5,4.9,0.75,0.57,1.31,0.0,11.52,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.22,0.0,0.0,0.18,0.0,0.0,0.0,0.0,8.3</t>
+  </si>
+  <si>
+    <t>19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5,12.33,5.35,0.54,0.86,0.63,0.33,12.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.16,0.32,0.03,0.03,0.14,0.0,0.0,0.0,0.0,22.13</t>
+  </si>
+  <si>
+    <t>17.25,5.06,1.01,1.14,0.89,0.0,11.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.06,0.06,0.16,0.01,0.0,0.0,0.0,7.86,23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77</t>
+  </si>
+  <si>
+    <t>19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5,13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67</t>
+  </si>
+  <si>
+    <t>8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5,26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13</t>
+  </si>
+  <si>
+    <t>13.75,5.27,0.81,1.14,0.71,0.25,12.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.05,0.11,0.22,0.11,0.11,0.15,0.02,0.0,0.0,0.0,20.67,23.5,5.53,0.69,0.57,1.21,1.0,15.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.28,0.09,0.09,0.17,0.0,0.0,0.2,0.2,16.38</t>
+  </si>
+  <si>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,22.0,5.57,1.29,1.14,1.13,1.0,14.53,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.1,0.13,0.17,0.02,0.02,0.13,0.02,0.0,0.0,0.0,11.06</t>
   </si>
   <si>
     <t>wo a</t>
@@ -1380,40 +1380,40 @@
     <t>re no different nor are they the same but they are significant.</t>
   </si>
   <si>
-    <t>405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,436,0.2,12.48,0.0,0.05,1.4,0.0,0.0,0.0,0.2,0.3,0.3,0.08,0.2</t>
-  </si>
-  <si>
-    <t>158,0.5,10.83,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,401,0.33,12.84,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>389,0.33,11.41,0.0,0.04,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.0,0.0,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,563,0.0,17.45,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.08,0.0</t>
-  </si>
-  <si>
-    <t>372,0.0,10.84,0.0,0.0,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.08,0.0,350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0,350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>322,1.33,12.12,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,492,0.75,13.72,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>518,0.4,13.53,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.4,0.0,0.0,350,0.75,15.01,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.08,0.0</t>
-  </si>
-  <si>
-    <t>350,1.0,12.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,219,0.5,11.81,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>559,0.6,13.13,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,405,0.75,13.05,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.25,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,104,0.0,15.65,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5,16.2,5.38,1.19,1.43,0.83,0.2,12.48,0.0,0.05,1.4,0,0,0.0,0.0,0.0,0.09,0.07,0.32,0.05,0.05,0.12,0.0,0.0,0.2,0.2,9.43</t>
+  </si>
+  <si>
+    <t>16.0,4.94,0.47,0.57,0.82,0.5,10.83,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.03,0.31,0.03,0.03,0.19,0.0,0.0,0.0,0.0,15.6,26.0,5.14,1.14,0.86,1.33,0.33,12.84,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.15,0.12,0.24,0.09,0.09,0.05,0.01,0.13,0.0,0.0,12.07</t>
+  </si>
+  <si>
+    <t>26.33,4.92,1.16,0.86,1.35,0.33,11.41,0.0,0.04,1.0,4,0,0.0,0.01,0.0,0.1,0.09,0.22,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.13,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
+  </si>
+  <si>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56,18.6,6.05,1.36,1.43,0.95,0.0,17.45,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.17,0.16,0.27,0.03,0.03,0.05,0.01,0.13,0.0,0.0,11.53</t>
+  </si>
+  <si>
+    <t>18.75,4.96,1.1,1.14,0.96,0.0,10.84,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.11,0.27,0.03,0.03,0.12,0.0,0.0,0.0,0.0,7.11,23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77</t>
+  </si>
+  <si>
+    <t>23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26,15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
+  </si>
+  <si>
+    <t>21.33,5.03,0.94,0.86,1.09,1.33,12.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.25,0.09,0.09,0.17,0.0,0.0,0.0,0.0,18.56,23.0,5.35,1.35,1.14,1.18,0.75,13.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.14,0.17,0.09,0.09,0.09,0.01,0.0,0.0,0.0,11.26</t>
+  </si>
+  <si>
+    <t>19.4,5.34,1.42,1.43,1.0,0.4,13.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.13,0.23,0.12,0.12,0.09,0.02,0.25,0.0,0.0,13.67,15.5,5.65,0.91,1.14,0.8,0.75,15.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.05,0.05,0.06,0.02,0.0,0.0,0.0,10.86</t>
+  </si>
+  <si>
+    <t>23.0,5.07,1.01,0.86,1.18,1.0,12.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.12,0.26,0.06,0.06,0.13,0.0,0.0,0.0,0.0,14.77,21.5,5.09,0.63,0.57,1.1,0.5,11.81,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.12,0.02,0.35,0.02,0.02,0.16,0.02,0.0,0.0,0.0,13.5</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38</t>
+  </si>
+  <si>
+    <t>20.6,5.43,1.51,1.43,1.06,0.6,13.13,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,12.54,19.25,5.26,1.13,1.14,0.99,0.75,13.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.14,0.21,0.04,0.04,0.09,0.01,0.0,0.0,0.0,17.5</t>
+  </si>
+  <si>
+    <t>12.75,4.84,0.75,1.14,0.65,0.25,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.29,0.02,0.02,0.1,0.0,0.0,0.0,0.0,15.38,8.5,6.12,0.25,0.57,0.44,0.0,15.65,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.18,0.06,0.06,0.06,0.0,0.0,0.0,0.0,11.5</t>
   </si>
 </sst>
 </file>
